--- a/assets/seminar/seminar_data.xlsx
+++ b/assets/seminar/seminar_data.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brahan/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74286EE-06F1-1044-8350-01E670A9F949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="41120" windowHeight="25720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId4"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -179,36 +188,124 @@
   </si>
   <si>
     <t>The topic of the meeting is our ongoing work on jigsaw puzzle solving, done in collaboration with colleagues from Ca' Foscari University...</t>
+  </si>
+  <si>
+    <t>19/5/2024</t>
+  </si>
+  <si>
+    <t>Ori Hendler</t>
+  </si>
+  <si>
+    <t>Ron Shapira Weber</t>
+  </si>
+  <si>
+    <t>Irit Chelly</t>
+  </si>
+  <si>
+    <t>Nir Mualem</t>
+  </si>
+  <si>
+    <t>We are Hosting Nir Mualem who will give us a lecture on his recent paper:  Gaussian Splashing: Direct Volumetric Rendering Underwater. (more details are available by email only)</t>
+  </si>
+  <si>
+    <t>We are hosting Irit Chelly and Shira Ifergan who will give us a lecture on their recent paper: Trainable Highly-expressive Activation Functions. (more details are avilable by email only).</t>
+  </si>
+  <si>
+    <t>SemB Opening Meeting</t>
+  </si>
+  <si>
+    <t>Gur Elkin will give us a lecture on a Paper: Growing NCA</t>
+  </si>
+  <si>
+    <t>We are hosting Ori Hendler which will give us a lecture on his recent paper: Can Winner-take-all underlie saliency detection?</t>
+  </si>
+  <si>
+    <t>LabMeetingLec</t>
+  </si>
+  <si>
+    <t>Yaniv Ohaion will give us a lecture on a a Paper: NN Optimization - AdamW</t>
+  </si>
+  <si>
+    <t>We are Hosting Ron Shapira Weber who will give us a lecture on his recent paper:  Regularization-free approaches for joint alignment of images, times series, and videos. (more details are available by email only)</t>
+  </si>
+  <si>
+    <t>Dan Zlotkin Will give us a Lecture on a Paper:  Inducing movement using brain stimulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Lazarovyich will give us a Lecture on a Paper: Reconstructing Training Data from Trained Neural Networks </t>
+  </si>
+  <si>
+    <t>Reconstructing Training Data from Trained Neural Networks</t>
+  </si>
+  <si>
+    <t>Inducing movement using brain stimulation</t>
+  </si>
+  <si>
+    <t>LabMemberLec- NN Optimization - AdamW</t>
+  </si>
+  <si>
+    <t>Ori Hendler: Can Winner-take-all underlie saliency detection?</t>
+  </si>
+  <si>
+    <t>Ron S. Weber: Regularization-free approaches for joint alignment of images, times series, and videos.</t>
+  </si>
+  <si>
+    <t>Nir Muealem: Gaussian Splashing: Direct Volumetric Rendering Underwater</t>
+  </si>
+  <si>
+    <t>Irit Chelly: Trainable Highly-expressive Activation Functions</t>
+  </si>
+  <si>
+    <t>LabTour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Lellouch: 3D Rotation representation, exponential maps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Lellouch will give us a Lecture on a Paper: 3D Rotation representation, exponential maps </t>
+  </si>
+  <si>
+    <t>Michael Lellouch: VisionUpdates</t>
+  </si>
+  <si>
+    <t>Michael Lellouch will give us a Lecture on recent updates in CV research</t>
+  </si>
+  <si>
+    <t>LabMemberLec: Nadav Alalli</t>
+  </si>
+  <si>
+    <t>Lab Tour at Ben-Gurion Campus.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,7 +316,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,53 +339,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -490,7 +692,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -508,7 +710,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -537,7 +739,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -562,7 +764,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -587,7 +789,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -612,7 +814,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -637,7 +839,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,7 +864,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +889,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -712,7 +914,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +939,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -750,9 +952,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -769,7 +977,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -787,7 +995,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +1020,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,7 +1045,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,7 +1070,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +1095,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +1120,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +1145,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1170,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,7 +1195,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,7 +1220,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,9 +1233,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1041,7 +1255,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1059,7 +1273,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,7 +1302,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1113,7 +1327,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1352,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1377,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1402,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1427,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1452,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1477,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1502,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,349 +1515,542 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="12.6719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="20" customWidth="1"/>
+    <col min="2" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="12.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="4">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="4">
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="4">
+    <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="4">
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="4">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" t="s" s="4">
+    <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="4">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" t="s" s="4">
+    <row r="6" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s" s="4">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s" s="4">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" t="s" s="4">
+    <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s" s="4">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s" s="4">
+      <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" t="s" s="4">
+    <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s" s="4">
+      <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s" s="4">
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" t="s" s="4">
+    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s" s="4">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" t="s" s="4">
+    <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s" s="4">
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="13.65" customHeight="1">
-      <c r="A11" t="s" s="4">
+    <row r="11" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s" s="4">
+      <c r="B11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s" s="4">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="13.65" customHeight="1">
-      <c r="A12" t="s" s="4">
+    <row r="12" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s" s="4">
+      <c r="B12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s" s="4">
+      <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" t="s" s="4">
+    <row r="13" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B13" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s" s="4">
+      <c r="B13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="13.65" customHeight="1">
-      <c r="A14" t="s" s="4">
+    <row r="14" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s" s="4">
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s" s="4">
+      <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="13.65" customHeight="1">
-      <c r="A15" t="s" s="4">
+    <row r="15" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s" s="4">
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s" s="4">
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" t="s" s="4">
+    <row r="16" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s" s="4">
+      <c r="B16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s" s="4">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="13.65" customHeight="1">
-      <c r="A17" t="s" s="4">
+    <row r="17" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B17" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s" s="4">
+      <c r="B17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s" s="4">
+      <c r="D17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="13.65" customHeight="1">
-      <c r="A18" t="s" s="4">
+    <row r="18" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s" s="4">
+      <c r="B18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="13.65" customHeight="1">
-      <c r="A19" t="s" s="4">
+    <row r="19" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B19" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s" s="4">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D19" t="s" s="4">
+      <c r="D19" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="13.65" customHeight="1">
-      <c r="A20" t="s" s="4">
+    <row r="20" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B20" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s" s="4">
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="13.65" customHeight="1">
-      <c r="A21" t="s" s="4">
+    <row r="21" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B21" t="s" s="4">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s" s="4">
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="s" s="4">
+      <c r="D21" s="8" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="3"/>
     </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19">
+        <v>45438</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19">
+        <v>45445</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19">
+        <v>45452</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19">
+        <v>45487</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="19">
+        <v>45494</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="19">
+        <v>45501</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="19">
+        <v>45508</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="19">
+        <v>45515</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="19">
+        <v>45522</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="19">
+        <v>45529</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="19">
+        <v>45536</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="19">
+        <v>45543</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B27" r:id="rId1" display="https://scholar.google.co.il/citations?user=vC0UNakAAAAJ&amp;hl=en" xr:uid="{1798CF5B-500D-804F-88CA-05E0DDF342FF}"/>
+    <hyperlink ref="B34" r:id="rId2" display="https://scholar.google.co.il/citations?user=yoR9WNoAAAAJ&amp;hl=en" xr:uid="{5964941E-1E80-B54D-9435-D1959BD07DE0}"/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/assets/seminar/seminar_data.xlsx
+++ b/assets/seminar/seminar_data.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brahan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74286EE-06F1-1044-8350-01E670A9F949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="41120" windowHeight="25720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -190,133 +181,174 @@
     <t>The topic of the meeting is our ongoing work on jigsaw puzzle solving, done in collaboration with colleagues from Ca' Foscari University...</t>
   </si>
   <si>
-    <t>19/5/2024</t>
+    <t>19.05.2024</t>
+  </si>
+  <si>
+    <t>SemB Opening Meeting</t>
+  </si>
+  <si>
+    <t>26.05.2024</t>
+  </si>
+  <si>
+    <t>Michael Lellouch: VisionUpdates</t>
+  </si>
+  <si>
+    <t>Michael Lellouch will give us a Lecture on recent updates in CV research</t>
+  </si>
+  <si>
+    <t>02.06.2024</t>
+  </si>
+  <si>
+    <t>LabMeetingLec</t>
+  </si>
+  <si>
+    <t>Gur Elkin will give us a lecture on a Paper: Growing NCA</t>
+  </si>
+  <si>
+    <t>09.06.2024</t>
   </si>
   <si>
     <t>Ori Hendler</t>
   </si>
   <si>
+    <t>Ori Hendler: Can Winner-take-all underlie saliency detection?</t>
+  </si>
+  <si>
+    <t>We are hosting Ori Hendler which will give us a lecture on his recent paper: Can Winner-take-all underlie saliency detection?</t>
+  </si>
+  <si>
+    <t>14.07.2024</t>
+  </si>
+  <si>
+    <t>LabMemberLec- NN Optimization - AdamW</t>
+  </si>
+  <si>
+    <t>Yaniv Ohaion will give us a lecture on a a Paper: NN Optimization - AdamW</t>
+  </si>
+  <si>
+    <t>21.07.2024</t>
+  </si>
+  <si>
     <t>Ron Shapira Weber</t>
   </si>
   <si>
+    <t>Ron S. Weber: Regularization-free approaches for joint alignment of images, times series, and videos.</t>
+  </si>
+  <si>
+    <t>We are Hosting Ron Shapira Weber who will give us a lecture on his recent paper:  Regularization-free approaches for joint alignment of images, times series, and videos. (more details are available by email only)</t>
+  </si>
+  <si>
+    <t>28.07.2024</t>
+  </si>
+  <si>
+    <t>Inducing movement using brain stimulation</t>
+  </si>
+  <si>
+    <t>Dan Zlotkin Will give us a Lecture on a Paper:  Inducing movement using brain stimulation</t>
+  </si>
+  <si>
+    <t>04.08.2024</t>
+  </si>
+  <si>
+    <t>Reconstructing Training Data from Trained Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Lazarovyich will give us a Lecture on a Paper: Reconstructing Training Data from Trained Neural Networks </t>
+  </si>
+  <si>
+    <t>11.08.2024</t>
+  </si>
+  <si>
+    <t>Nir Mualem</t>
+  </si>
+  <si>
+    <t>Nir Muealem: Gaussian Splashing: Direct Volumetric Rendering Underwater</t>
+  </si>
+  <si>
+    <t>We are Hosting Nir Mualem who will give us a lecture on his recent paper:  Gaussian Splashing: Direct Volumetric Rendering Underwater. (more details are available by email only)</t>
+  </si>
+  <si>
+    <t>18.08.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Lellouch: 3D Rotation representation, exponential maps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Lellouch will give us a Lecture on a Paper: 3D Rotation representation, exponential maps </t>
+  </si>
+  <si>
+    <t>25.08.2024</t>
+  </si>
+  <si>
+    <t>LabMemberLec: Nadav Alalli</t>
+  </si>
+  <si>
+    <t>01.09.2024</t>
+  </si>
+  <si>
+    <t>LabTour</t>
+  </si>
+  <si>
+    <t>Lab Tour at Ben-Gurion Campus.</t>
+  </si>
+  <si>
+    <t>08.09.2024</t>
+  </si>
+  <si>
     <t>Irit Chelly</t>
   </si>
   <si>
-    <t>Nir Mualem</t>
-  </si>
-  <si>
-    <t>We are Hosting Nir Mualem who will give us a lecture on his recent paper:  Gaussian Splashing: Direct Volumetric Rendering Underwater. (more details are available by email only)</t>
+    <t>Irit Chelly: Trainable Highly-expressive Activation Functions</t>
   </si>
   <si>
     <t>We are hosting Irit Chelly and Shira Ifergan who will give us a lecture on their recent paper: Trainable Highly-expressive Activation Functions. (more details are avilable by email only).</t>
-  </si>
-  <si>
-    <t>SemB Opening Meeting</t>
-  </si>
-  <si>
-    <t>Gur Elkin will give us a lecture on a Paper: Growing NCA</t>
-  </si>
-  <si>
-    <t>We are hosting Ori Hendler which will give us a lecture on his recent paper: Can Winner-take-all underlie saliency detection?</t>
-  </si>
-  <si>
-    <t>LabMeetingLec</t>
-  </si>
-  <si>
-    <t>Yaniv Ohaion will give us a lecture on a a Paper: NN Optimization - AdamW</t>
-  </si>
-  <si>
-    <t>We are Hosting Ron Shapira Weber who will give us a lecture on his recent paper:  Regularization-free approaches for joint alignment of images, times series, and videos. (more details are available by email only)</t>
-  </si>
-  <si>
-    <t>Dan Zlotkin Will give us a Lecture on a Paper:  Inducing movement using brain stimulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Lazarovyich will give us a Lecture on a Paper: Reconstructing Training Data from Trained Neural Networks </t>
-  </si>
-  <si>
-    <t>Reconstructing Training Data from Trained Neural Networks</t>
-  </si>
-  <si>
-    <t>Inducing movement using brain stimulation</t>
-  </si>
-  <si>
-    <t>LabMemberLec- NN Optimization - AdamW</t>
-  </si>
-  <si>
-    <t>Ori Hendler: Can Winner-take-all underlie saliency detection?</t>
-  </si>
-  <si>
-    <t>Ron S. Weber: Regularization-free approaches for joint alignment of images, times series, and videos.</t>
-  </si>
-  <si>
-    <t>Nir Muealem: Gaussian Splashing: Direct Volumetric Rendering Underwater</t>
-  </si>
-  <si>
-    <t>Irit Chelly: Trainable Highly-expressive Activation Functions</t>
-  </si>
-  <si>
-    <t>LabTour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Lellouch: 3D Rotation representation, exponential maps </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Lellouch will give us a Lecture on a Paper: 3D Rotation representation, exponential maps </t>
-  </si>
-  <si>
-    <t>Michael Lellouch: VisionUpdates</t>
-  </si>
-  <si>
-    <t>Michael Lellouch will give us a Lecture on recent updates in CV research</t>
-  </si>
-  <si>
-    <t>LabMemberLec: Nadav Alalli</t>
-  </si>
-  <si>
-    <t>Lab Tour at Ben-Gurion Campus.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -326,25 +358,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -352,145 +397,159 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -682,17 +741,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -710,19 +769,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -739,7 +798,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -764,7 +823,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -789,7 +848,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -814,7 +873,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -839,7 +898,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +923,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -889,7 +948,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +973,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +998,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -952,32 +1011,26 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -995,7 +1048,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,7 +1073,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1045,7 +1098,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1070,7 +1123,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1148,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1120,7 +1173,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1145,7 +1198,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1223,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1195,7 +1248,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1220,7 +1273,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,15 +1286,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1255,7 +1302,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1273,19 +1320,19 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1302,7 +1349,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1374,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1399,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1377,7 +1424,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1402,7 +1449,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1474,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1452,7 +1499,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1477,7 +1524,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1502,7 +1549,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1515,542 +1562,517 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="20" customWidth="1"/>
-    <col min="2" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="12.6640625" style="1"/>
+    <col min="1" max="1" width="9.35156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="157" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+    <row r="1" ht="13.75" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+    </row>
+    <row r="2" ht="13.75" customHeight="1">
+      <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16" t="s">
+    </row>
+    <row r="3" ht="13.75" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16" t="s">
+    </row>
+    <row r="4" ht="13.75" customHeight="1">
+      <c r="A4" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+    </row>
+    <row r="5" ht="13.75" customHeight="1">
+      <c r="A5" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+    </row>
+    <row r="6" ht="13.75" customHeight="1">
+      <c r="A6" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+    </row>
+    <row r="7" ht="13.75" customHeight="1">
+      <c r="A7" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+    </row>
+    <row r="8" ht="13.75" customHeight="1">
+      <c r="A8" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16" t="s">
+    </row>
+    <row r="9" ht="13.75" customHeight="1">
+      <c r="A9" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16" t="s">
+    </row>
+    <row r="10" ht="13.75" customHeight="1">
+      <c r="A10" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s" s="4">
         <v>26</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16" t="s">
+    </row>
+    <row r="11" ht="13.75" customHeight="1">
+      <c r="A11" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s" s="4">
         <v>30</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s" s="4">
         <v>31</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+    </row>
+    <row r="12" ht="13.75" customHeight="1">
+      <c r="A12" t="s" s="4">
         <v>32</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16" t="s">
+    </row>
+    <row r="13" ht="13.75" customHeight="1">
+      <c r="A13" t="s" s="4">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s" s="4">
         <v>34</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" t="s" s="4">
         <v>35</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16" t="s">
+    </row>
+    <row r="14" ht="13.75" customHeight="1">
+      <c r="A14" t="s" s="4">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+    </row>
+    <row r="15" ht="13.75" customHeight="1">
+      <c r="A15" t="s" s="4">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s" s="4">
         <v>40</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="16" t="s">
+    </row>
+    <row r="16" ht="13.75" customHeight="1">
+      <c r="A16" t="s" s="4">
         <v>41</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" t="s" s="4">
         <v>38</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="16" t="s">
+    </row>
+    <row r="17" ht="13.75" customHeight="1">
+      <c r="A17" t="s" s="4">
         <v>42</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B17" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s" s="4">
         <v>43</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" t="s" s="4">
         <v>44</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="16" t="s">
+    </row>
+    <row r="18" ht="13.75" customHeight="1">
+      <c r="A18" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s" s="4">
         <v>46</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" t="s" s="4">
         <v>47</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="16" t="s">
+    </row>
+    <row r="19" ht="13.75" customHeight="1">
+      <c r="A19" t="s" s="4">
         <v>48</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s" s="4">
         <v>49</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" t="s" s="4">
         <v>50</v>
       </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
+    </row>
+    <row r="20" ht="13.75" customHeight="1">
+      <c r="A20" t="s" s="4">
         <v>51</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s" s="4">
         <v>52</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" t="s" s="4">
         <v>50</v>
       </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
+    </row>
+    <row r="21" ht="13.75" customHeight="1">
+      <c r="A21" t="s" s="4">
         <v>53</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B21" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s" s="4">
         <v>54</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" t="s" s="4">
         <v>55</v>
       </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18" t="s">
+    </row>
+    <row r="22" ht="13.75" customHeight="1">
+      <c r="A22" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="6" t="s">
+      <c r="B22" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s" s="6">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" ht="13.75" customHeight="1">
+      <c r="A23" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s" s="8">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" ht="13.75" customHeight="1">
+      <c r="A24" t="s" s="7">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s" s="9">
+        <v>62</v>
+      </c>
+      <c r="D24" t="s" s="10">
         <v>63</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19">
-        <v>45438</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7" t="s">
+    </row>
+    <row r="25" ht="13.75" customHeight="1">
+      <c r="A25" t="s" s="8">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s" s="4">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s" s="9">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s" s="10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" ht="13.75" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" ht="13.75" customHeight="1">
+      <c r="A27" t="s" s="8">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s" s="11">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s" s="12">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s" s="10">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" ht="13.75" customHeight="1">
+      <c r="A28" t="s" s="8">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s" s="9">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" ht="13.75" customHeight="1">
+      <c r="A29" t="s" s="8">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s" s="9">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" ht="13.75" customHeight="1">
+      <c r="A30" t="s" s="8">
         <v>81</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="B30" t="s" s="11">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19">
-        <v>45445</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19">
-        <v>45452</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19">
-        <v>45487</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19">
-        <v>45494</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="19">
-        <v>45501</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="19">
-        <v>45508</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19">
-        <v>45515</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19">
-        <v>45522</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="19">
-        <v>45529</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="C30" t="s" s="12">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19">
-        <v>45536</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="21" t="s">
+      <c r="D30" t="s" s="10">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19">
-        <v>45543</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>62</v>
-      </c>
+    <row r="31" ht="13.75" customHeight="1">
+      <c r="A31" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s" s="9">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s" s="10">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" ht="13.75" customHeight="1">
+      <c r="A32" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s" s="9">
+        <v>89</v>
+      </c>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" ht="13.75" customHeight="1">
+      <c r="A33" t="s" s="8">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s" s="9">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s" s="10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" ht="13.75" customHeight="1">
+      <c r="A34" t="s" s="14">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s" s="11">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s" s="15">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s" s="16">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" ht="13.75" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" display="https://scholar.google.co.il/citations?user=vC0UNakAAAAJ&amp;hl=en" xr:uid="{1798CF5B-500D-804F-88CA-05E0DDF342FF}"/>
-    <hyperlink ref="B34" r:id="rId2" display="https://scholar.google.co.il/citations?user=yoR9WNoAAAAJ&amp;hl=en" xr:uid="{5964941E-1E80-B54D-9435-D1959BD07DE0}"/>
-  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
